--- a/results.xlsx
+++ b/results.xlsx
@@ -436,28 +436,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'KUGALUR PALANISAMY Nithyaraaj'}</t>
+          <t>{'Name': 'Luca'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Name': 'Philippe Montel'}</t>
+          <t>{'Name': 'Jean Duffy'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'Polina.Ya'}</t>
+          <t>{'Name': 'Nithi2'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Name': 'paatch woork'}</t>
+          <t>{'Name': 'Maarten Knaepen'}</t>
         </is>
       </c>
     </row>
@@ -490,21 +490,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'Maarten Knaepen'}</t>
+          <t>{'Name': 'Jaggar YusseF'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Name': 'Nithi2'}</t>
+          <t>{'Name': 'Sebastiaan Indesteege'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'Mark Shevchenko'}</t>
+          <t>{'Name': 'ME Coban'}</t>
         </is>
       </c>
     </row>
@@ -544,28 +544,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'Sahar-Mahmoudi'}</t>
+          <t>{'Name': 'Philippe Montel'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Name': 'Jyoti Sharma513'}</t>
+          <t>{'Name': 'paatch woork'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'Jaggar YusseF'}</t>
+          <t>{'Name': 'obohatov'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Name': 'Leyla DD'}</t>
+          <t>{'Name': 'Hazem Eldabaa'}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'Julio Barizon'}</t>
+          <t>{'Name': 'Jyoti Sharma513'}</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'Jean Duffy'}</t>
+          <t>{'Name': 'Mark Shevchenko'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Name': 'Sebastiaan Indesteege'}</t>
+          <t>{'Name': 'Polina.Ya'}</t>
         </is>
       </c>
     </row>
@@ -652,28 +652,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'Mahak Behl'}</t>
+          <t>{'Name': 'Sisekelo KeloSise'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Name': 'Hazem Eldabaa'}</t>
+          <t>{'Name': 'Sam Borms'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'ME Coban'}</t>
+          <t>{'Name': 'Audrey Audeha'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Name': 'obohatov'}</t>
+          <t>{'Name': 'KUGALUR PALANISAMY Nithyaraaj'}</t>
         </is>
       </c>
     </row>
@@ -706,21 +706,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Name': 'Luca'}</t>
+          <t>{'Name': 'Mahak Behl'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Name': 'Audrey Audeha'}</t>
+          <t>{'Name': 'Leyla DD'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Name': 'Sisekelo KeloSise'}</t>
+          <t>{'Name': 'Sahar-Mahmoudi'}</t>
         </is>
       </c>
     </row>
